--- a/personal/abbreviation.xlsx
+++ b/personal/abbreviation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2c6fb186291c3cd/github/alll/personal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_F25DC773A252ABDACC104861C1584D565ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3B3BE25-DB49-4C1F-840E-B645A3FF66C7}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_F25DC773A252ABDACC104861C1584D565ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85C52D83-64AE-4AA3-A806-8B4CE30E6BCA}"/>
   <bookViews>
-    <workbookView xWindow="10335" yWindow="6390" windowWidth="16815" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10335" yWindow="4050" windowWidth="16815" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>sry</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>meaning</t>
+  </si>
+  <si>
+    <t>ty</t>
+  </si>
+  <si>
+    <t>thank you</t>
   </si>
 </sst>
 </file>
@@ -107,6 +113,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,11 +382,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,9 +447,71 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D4">
-    <sortCondition ref="A6:A4"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D8">
+    <sortCondition ref="A2:A8"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/personal/abbreviation.xlsx
+++ b/personal/abbreviation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2c6fb186291c3cd/github/alll/personal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_F25DC773A252ABDACC104861C1584D565ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85C52D83-64AE-4AA3-A806-8B4CE30E6BCA}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_F25DC773A252ABDACC104861C1584D565ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FF43B56-838C-4BB2-8790-7035847F9799}"/>
   <bookViews>
     <workbookView xWindow="10335" yWindow="4050" windowWidth="16815" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,7 +386,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
